--- a/Physics/II semester/Labs/solutions/lab2/total.xlsx
+++ b/Physics/II semester/Labs/solutions/lab2/total.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="14">
   <si>
     <t>Упругое соударение</t>
   </si>
@@ -42,13 +42,26 @@
   <si>
     <t>бWt</t>
   </si>
+  <si>
+    <t>Абсолютная погрешность</t>
+  </si>
+  <si>
+    <t>Относительная погрешность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Y </t>
+  </si>
+  <si>
+    <t>|new Y - Y|</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -70,6 +83,9 @@
     <font>
       <b/>
       <i/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="10">
@@ -276,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -379,14 +395,20 @@
     <xf borderId="3" fillId="9" fontId="1" numFmtId="2" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="4" fillId="9" fontId="1" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="5" fillId="9" fontId="1" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="3" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,11 +509,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1458620692"/>
-        <c:axId val="2087399242"/>
+        <c:axId val="11632969"/>
+        <c:axId val="1686333336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1458620692"/>
+        <c:axId val="11632969"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -566,12 +588,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2087399242"/>
+        <c:crossAx val="1686333336"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2087399242"/>
+        <c:axId val="1686333336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -644,7 +667,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1458620692"/>
+        <c:crossAx val="11632969"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -743,12 +766,12 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Лист1'!$C$98:$AL$98</c:f>
+              <c:f>'Лист1'!$C$99:$AL$99</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Лист1'!$C$99:$AL$99</c:f>
+              <c:f>'Лист1'!$C$100:$AL$100</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -761,11 +784,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1704865471"/>
-        <c:axId val="1391509109"/>
+        <c:axId val="1716020976"/>
+        <c:axId val="1955419101"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1704865471"/>
+        <c:axId val="1716020976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -840,12 +863,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1391509109"/>
+        <c:crossAx val="1955419101"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1391509109"/>
+        <c:axId val="1955419101"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.37"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -918,7 +942,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1704865471"/>
+        <c:crossAx val="1716020976"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1017,12 +1041,12 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Лист1'!$C$127:$AL$127</c:f>
+              <c:f>'Лист1'!$C$131:$AL$131</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Лист1'!$C$128:$AL$128</c:f>
+              <c:f>'Лист1'!$C$132:$AL$132</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1035,11 +1059,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="928576869"/>
-        <c:axId val="1298241526"/>
+        <c:axId val="1445734558"/>
+        <c:axId val="2115797763"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="928576869"/>
+        <c:axId val="1445734558"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1114,12 +1138,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1298241526"/>
+        <c:crossAx val="2115797763"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1298241526"/>
+        <c:axId val="2115797763"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.37"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1192,7 +1217,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="928576869"/>
+        <c:crossAx val="1445734558"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1249,7 +1274,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7600950" cy="4705350"/>
@@ -1274,7 +1299,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7600950" cy="4705350"/>
@@ -5592,12 +5617,15 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
+      <c r="K69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L69" s="5"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="44">
+        <f>MAX(C92:AL92)</f>
+        <v>0.0297010352</v>
+      </c>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
@@ -5634,10 +5662,15 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
+      <c r="K70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L70" s="5"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="45">
+        <f>N69</f>
+        <v>0.0297010352</v>
+      </c>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
@@ -6486,84 +6519,304 @@
     </row>
     <row r="91">
       <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
-      <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
-      <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
-      <c r="Q91" s="1"/>
-      <c r="R91" s="1"/>
-      <c r="S91" s="1"/>
-      <c r="T91" s="1"/>
-      <c r="U91" s="1"/>
-      <c r="V91" s="1"/>
-      <c r="W91" s="1"/>
-      <c r="X91" s="1"/>
-      <c r="Y91" s="1"/>
-      <c r="Z91" s="1"/>
-      <c r="AA91" s="1"/>
-      <c r="AB91" s="1"/>
-      <c r="AC91" s="1"/>
-      <c r="AD91" s="1"/>
-      <c r="AE91" s="1"/>
-      <c r="AF91" s="1"/>
-      <c r="AG91" s="1"/>
-      <c r="AH91" s="1"/>
-      <c r="AI91" s="1"/>
-      <c r="AJ91" s="1"/>
-      <c r="AK91" s="1"/>
-      <c r="AL91" s="1"/>
+      <c r="B91" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="47">
+        <f t="shared" ref="C91:AL91" si="49">0.964 * C63 + 0.0352</f>
+        <v>0.9992</v>
+      </c>
+      <c r="D91" s="47">
+        <f t="shared" si="49"/>
+        <v>0.9532952381</v>
+      </c>
+      <c r="E91" s="47">
+        <f t="shared" si="49"/>
+        <v>0.9115636364</v>
+      </c>
+      <c r="F91" s="47">
+        <f t="shared" si="49"/>
+        <v>0.8734608696</v>
+      </c>
+      <c r="G91" s="47">
+        <f t="shared" si="49"/>
+        <v>0.8385333333</v>
+      </c>
+      <c r="H91" s="47">
+        <f t="shared" si="49"/>
+        <v>0.8064</v>
+      </c>
+      <c r="I91" s="47">
+        <f t="shared" si="49"/>
+        <v>1.045104762</v>
+      </c>
+      <c r="J91" s="47">
+        <f t="shared" si="49"/>
+        <v>0.9992</v>
+      </c>
+      <c r="K91" s="47">
+        <f t="shared" si="49"/>
+        <v>0.9572869565</v>
+      </c>
+      <c r="L91" s="47">
+        <f t="shared" si="49"/>
+        <v>0.9188666667</v>
+      </c>
+      <c r="M91" s="47">
+        <f t="shared" si="49"/>
+        <v>0.88352</v>
+      </c>
+      <c r="N91" s="47">
+        <f t="shared" si="49"/>
+        <v>0.8508923077</v>
+      </c>
+      <c r="O91" s="47">
+        <f t="shared" si="49"/>
+        <v>1.086836364</v>
+      </c>
+      <c r="P91" s="47">
+        <f t="shared" si="49"/>
+        <v>1.041113043</v>
+      </c>
+      <c r="Q91" s="47">
+        <f t="shared" si="49"/>
+        <v>0.9992</v>
+      </c>
+      <c r="R91" s="47">
+        <f t="shared" si="49"/>
+        <v>0.96064</v>
+      </c>
+      <c r="S91" s="47">
+        <f t="shared" si="49"/>
+        <v>0.9250461538</v>
+      </c>
+      <c r="T91" s="47">
+        <f t="shared" si="49"/>
+        <v>0.8920888889</v>
+      </c>
+      <c r="U91" s="47">
+        <f t="shared" si="49"/>
+        <v>1.12493913</v>
+      </c>
+      <c r="V91" s="47">
+        <f t="shared" si="49"/>
+        <v>1.079533333</v>
+      </c>
+      <c r="W91" s="47">
+        <f t="shared" si="49"/>
+        <v>1.03776</v>
+      </c>
+      <c r="X91" s="47">
+        <f t="shared" si="49"/>
+        <v>0.9992</v>
+      </c>
+      <c r="Y91" s="47">
+        <f t="shared" si="49"/>
+        <v>0.9634962963</v>
+      </c>
+      <c r="Z91" s="47">
+        <f t="shared" si="49"/>
+        <v>0.9303428571</v>
+      </c>
+      <c r="AA91" s="47">
+        <f t="shared" si="49"/>
+        <v>1.159866667</v>
+      </c>
+      <c r="AB91" s="47">
+        <f t="shared" si="49"/>
+        <v>1.11488</v>
+      </c>
+      <c r="AC91" s="47">
+        <f t="shared" si="49"/>
+        <v>1.073353846</v>
+      </c>
+      <c r="AD91" s="47">
+        <f t="shared" si="49"/>
+        <v>1.034903704</v>
+      </c>
+      <c r="AE91" s="47">
+        <f t="shared" si="49"/>
+        <v>0.9992</v>
+      </c>
+      <c r="AF91" s="47">
+        <f t="shared" si="49"/>
+        <v>0.9659586207</v>
+      </c>
+      <c r="AG91" s="47">
+        <f t="shared" si="49"/>
+        <v>1.192</v>
+      </c>
+      <c r="AH91" s="47">
+        <f t="shared" si="49"/>
+        <v>1.147507692</v>
+      </c>
+      <c r="AI91" s="47">
+        <f t="shared" si="49"/>
+        <v>1.106311111</v>
+      </c>
+      <c r="AJ91" s="47">
+        <f t="shared" si="49"/>
+        <v>1.068057143</v>
+      </c>
+      <c r="AK91" s="47">
+        <f t="shared" si="49"/>
+        <v>1.032441379</v>
+      </c>
+      <c r="AL91" s="47">
+        <f t="shared" si="49"/>
+        <v>0.9992</v>
+      </c>
       <c r="AM91" s="1"/>
     </row>
     <row r="92">
       <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
-      <c r="Q92" s="1"/>
-      <c r="R92" s="1"/>
-      <c r="S92" s="1"/>
-      <c r="T92" s="1"/>
-      <c r="U92" s="1"/>
-      <c r="V92" s="1"/>
-      <c r="W92" s="1"/>
-      <c r="X92" s="1"/>
-      <c r="Y92" s="1"/>
-      <c r="Z92" s="1"/>
-      <c r="AA92" s="1"/>
-      <c r="AB92" s="1"/>
-      <c r="AC92" s="1"/>
-      <c r="AD92" s="1"/>
-      <c r="AE92" s="1"/>
-      <c r="AF92" s="1"/>
-      <c r="AG92" s="1"/>
-      <c r="AH92" s="1"/>
-      <c r="AI92" s="1"/>
-      <c r="AJ92" s="1"/>
-      <c r="AK92" s="1"/>
-      <c r="AL92" s="1"/>
+      <c r="B92" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="47">
+        <f t="shared" ref="C92:AL92" si="50">ABS(C64 - C91)</f>
+        <v>0.0008</v>
+      </c>
+      <c r="D92" s="47">
+        <f t="shared" si="50"/>
+        <v>0.003226501035</v>
+      </c>
+      <c r="E92" s="47">
+        <f t="shared" si="50"/>
+        <v>0.006801731602</v>
+      </c>
+      <c r="F92" s="47">
+        <f t="shared" si="50"/>
+        <v>0.003895652174</v>
+      </c>
+      <c r="G92" s="47">
+        <f t="shared" si="50"/>
+        <v>0.001466666667</v>
+      </c>
+      <c r="H92" s="47">
+        <f t="shared" si="50"/>
+        <v>0.001292307692</v>
+      </c>
+      <c r="I92" s="47">
+        <f t="shared" si="50"/>
+        <v>0.007526817043</v>
+      </c>
+      <c r="J92" s="47">
+        <f t="shared" si="50"/>
+        <v>0.0008</v>
+      </c>
+      <c r="K92" s="47">
+        <f t="shared" si="50"/>
+        <v>0.0007652173913</v>
+      </c>
+      <c r="L92" s="47">
+        <f t="shared" si="50"/>
+        <v>0.001133333333</v>
+      </c>
+      <c r="M92" s="47">
+        <f t="shared" si="50"/>
+        <v>0.001095384615</v>
+      </c>
+      <c r="N92" s="47">
+        <f t="shared" si="50"/>
+        <v>0.0009595441595</v>
+      </c>
+      <c r="O92" s="47">
+        <f t="shared" si="50"/>
+        <v>0.0001201581028</v>
+      </c>
+      <c r="P92" s="47">
+        <f t="shared" si="50"/>
+        <v>0.006506004141</v>
+      </c>
+      <c r="Q92" s="47">
+        <f t="shared" si="50"/>
+        <v>0.0008</v>
+      </c>
+      <c r="R92" s="47">
+        <f t="shared" si="50"/>
+        <v>0.00411826087</v>
+      </c>
+      <c r="S92" s="47">
+        <f t="shared" si="50"/>
+        <v>0.005046153846</v>
+      </c>
+      <c r="T92" s="47">
+        <f t="shared" si="50"/>
+        <v>0.0007682539683</v>
+      </c>
+      <c r="U92" s="47">
+        <f t="shared" si="50"/>
+        <v>0.0297010352</v>
+      </c>
+      <c r="V92" s="47">
+        <f t="shared" si="50"/>
+        <v>0.00261025641</v>
+      </c>
+      <c r="W92" s="47">
+        <f t="shared" si="50"/>
+        <v>0.000722962963</v>
+      </c>
+      <c r="X92" s="47">
+        <f t="shared" si="50"/>
+        <v>0.0008</v>
+      </c>
+      <c r="Y92" s="47">
+        <f t="shared" si="50"/>
+        <v>0.0007894179894</v>
+      </c>
+      <c r="Z92" s="47">
+        <f t="shared" si="50"/>
+        <v>0.00299047619</v>
+      </c>
+      <c r="AA92" s="47">
+        <f t="shared" si="50"/>
+        <v>0.0001333333333</v>
+      </c>
+      <c r="AB92" s="47">
+        <f t="shared" si="50"/>
+        <v>0.01555478261</v>
+      </c>
+      <c r="AC92" s="47">
+        <f t="shared" si="50"/>
+        <v>0.01360267559</v>
+      </c>
+      <c r="AD92" s="47">
+        <f t="shared" si="50"/>
+        <v>0.002133333333</v>
+      </c>
+      <c r="AE92" s="47">
+        <f t="shared" si="50"/>
+        <v>0.0008</v>
+      </c>
+      <c r="AF92" s="47">
+        <f t="shared" si="50"/>
+        <v>0.004420159151</v>
+      </c>
+      <c r="AG92" s="47">
+        <f t="shared" si="50"/>
+        <v>0.0003076923077</v>
+      </c>
+      <c r="AH92" s="47">
+        <f t="shared" si="50"/>
+        <v>0.004650549451</v>
+      </c>
+      <c r="AI92" s="47">
+        <f t="shared" si="50"/>
+        <v>0.002862835249</v>
+      </c>
+      <c r="AJ92" s="47">
+        <f t="shared" si="50"/>
+        <v>0.01194285714</v>
+      </c>
+      <c r="AK92" s="47">
+        <f t="shared" si="50"/>
+        <v>0.006020159151</v>
+      </c>
+      <c r="AL92" s="47">
+        <f t="shared" si="50"/>
+        <v>0.0008</v>
+      </c>
       <c r="AM92" s="1"/>
     </row>
     <row r="93">
@@ -6609,10 +6862,8 @@
     </row>
     <row r="94">
       <c r="A94" s="1"/>
-      <c r="B94" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C94" s="3"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -6652,8 +6903,10 @@
     </row>
     <row r="95">
       <c r="A95" s="1"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="9"/>
+      <c r="B95" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" s="3"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -6693,8 +6946,8 @@
     </row>
     <row r="96">
       <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="9"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -6775,345 +7028,345 @@
     </row>
     <row r="98">
       <c r="A98" s="1"/>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
+      <c r="Z98" s="1"/>
+      <c r="AA98" s="1"/>
+      <c r="AB98" s="1"/>
+      <c r="AC98" s="1"/>
+      <c r="AD98" s="1"/>
+      <c r="AE98" s="1"/>
+      <c r="AF98" s="1"/>
+      <c r="AG98" s="1"/>
+      <c r="AH98" s="1"/>
+      <c r="AI98" s="1"/>
+      <c r="AJ98" s="1"/>
+      <c r="AK98" s="1"/>
+      <c r="AL98" s="1"/>
+      <c r="AM98" s="1"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1"/>
+      <c r="B99" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C98" s="29">
-        <f t="shared" ref="C98:H98" si="49">N21</f>
+      <c r="C99" s="29">
+        <f t="shared" ref="C99:H99" si="51">N21</f>
         <v>0.5</v>
       </c>
-      <c r="D98" s="30">
-        <f t="shared" si="49"/>
+      <c r="D99" s="30">
+        <f t="shared" si="51"/>
         <v>0.4761904762</v>
       </c>
-      <c r="E98" s="30">
-        <f t="shared" si="49"/>
+      <c r="E99" s="30">
+        <f t="shared" si="51"/>
         <v>0.4545454545</v>
       </c>
-      <c r="F98" s="30">
-        <f t="shared" si="49"/>
+      <c r="F99" s="30">
+        <f t="shared" si="51"/>
         <v>0.4347826087</v>
       </c>
-      <c r="G98" s="30">
-        <f t="shared" si="49"/>
+      <c r="G99" s="30">
+        <f t="shared" si="51"/>
         <v>0.4166666667</v>
       </c>
-      <c r="H98" s="30">
-        <f t="shared" si="49"/>
+      <c r="H99" s="30">
+        <f t="shared" si="51"/>
         <v>0.4</v>
       </c>
-      <c r="I98" s="29">
-        <f t="shared" ref="I98:N98" si="50">N23</f>
+      <c r="I99" s="29">
+        <f t="shared" ref="I99:N99" si="52">N23</f>
         <v>0.5238095238</v>
       </c>
-      <c r="J98" s="30">
-        <f t="shared" si="50"/>
-        <v>0.5</v>
-      </c>
-      <c r="K98" s="30">
-        <f t="shared" si="50"/>
-        <v>0.4782608696</v>
-      </c>
-      <c r="L98" s="30">
-        <f t="shared" si="50"/>
-        <v>0.4583333333</v>
-      </c>
-      <c r="M98" s="30">
-        <f t="shared" si="50"/>
-        <v>0.44</v>
-      </c>
-      <c r="N98" s="30">
-        <f t="shared" si="50"/>
-        <v>0.4230769231</v>
-      </c>
-      <c r="O98" s="32">
-        <f t="shared" ref="O98:T98" si="51">N25</f>
-        <v>0.5454545455</v>
-      </c>
-      <c r="P98" s="33">
-        <f t="shared" si="51"/>
-        <v>0.5217391304</v>
-      </c>
-      <c r="Q98" s="33">
-        <f t="shared" si="51"/>
-        <v>0.5</v>
-      </c>
-      <c r="R98" s="33">
-        <f t="shared" si="51"/>
-        <v>0.48</v>
-      </c>
-      <c r="S98" s="33">
-        <f t="shared" si="51"/>
-        <v>0.4615384615</v>
-      </c>
-      <c r="T98" s="33">
-        <f t="shared" si="51"/>
-        <v>0.4444444444</v>
-      </c>
-      <c r="U98" s="35">
-        <f t="shared" ref="U98:Z98" si="52">N27</f>
-        <v>0.5652173913</v>
-      </c>
-      <c r="V98" s="36">
-        <f t="shared" si="52"/>
-        <v>0.5416666667</v>
-      </c>
-      <c r="W98" s="36">
-        <f t="shared" si="52"/>
-        <v>0.52</v>
-      </c>
-      <c r="X98" s="36">
+      <c r="J99" s="30">
         <f t="shared" si="52"/>
         <v>0.5</v>
       </c>
-      <c r="Y98" s="36">
+      <c r="K99" s="30">
         <f t="shared" si="52"/>
-        <v>0.4814814815</v>
-      </c>
-      <c r="Z98" s="36">
+        <v>0.4782608696</v>
+      </c>
+      <c r="L99" s="30">
         <f t="shared" si="52"/>
-        <v>0.4642857143</v>
-      </c>
-      <c r="AA98" s="38">
-        <f t="shared" ref="AA98:AF98" si="53">N29</f>
-        <v>0.5833333333</v>
-      </c>
-      <c r="AB98" s="39">
+        <v>0.4583333333</v>
+      </c>
+      <c r="M99" s="30">
+        <f t="shared" si="52"/>
+        <v>0.44</v>
+      </c>
+      <c r="N99" s="30">
+        <f t="shared" si="52"/>
+        <v>0.4230769231</v>
+      </c>
+      <c r="O99" s="32">
+        <f t="shared" ref="O99:T99" si="53">N25</f>
+        <v>0.5454545455</v>
+      </c>
+      <c r="P99" s="33">
         <f t="shared" si="53"/>
-        <v>0.56</v>
-      </c>
-      <c r="AC98" s="39">
-        <f t="shared" si="53"/>
-        <v>0.5384615385</v>
-      </c>
-      <c r="AD98" s="39">
-        <f t="shared" si="53"/>
-        <v>0.5185185185</v>
-      </c>
-      <c r="AE98" s="39">
+        <v>0.5217391304</v>
+      </c>
+      <c r="Q99" s="33">
         <f t="shared" si="53"/>
         <v>0.5</v>
       </c>
-      <c r="AF98" s="39">
+      <c r="R99" s="33">
         <f t="shared" si="53"/>
-        <v>0.4827586207</v>
-      </c>
-      <c r="AG98" s="41">
-        <f t="shared" ref="AG98:AL98" si="54">N31</f>
-        <v>0.6</v>
-      </c>
-      <c r="AH98" s="42">
+        <v>0.48</v>
+      </c>
+      <c r="S99" s="33">
+        <f t="shared" si="53"/>
+        <v>0.4615384615</v>
+      </c>
+      <c r="T99" s="33">
+        <f t="shared" si="53"/>
+        <v>0.4444444444</v>
+      </c>
+      <c r="U99" s="35">
+        <f t="shared" ref="U99:Z99" si="54">N27</f>
+        <v>0.5652173913</v>
+      </c>
+      <c r="V99" s="36">
         <f t="shared" si="54"/>
-        <v>0.5769230769</v>
-      </c>
-      <c r="AI98" s="42">
+        <v>0.5416666667</v>
+      </c>
+      <c r="W99" s="36">
         <f t="shared" si="54"/>
-        <v>0.5555555556</v>
-      </c>
-      <c r="AJ98" s="42">
-        <f t="shared" si="54"/>
-        <v>0.5357142857</v>
-      </c>
-      <c r="AK98" s="42">
-        <f t="shared" si="54"/>
-        <v>0.5172413793</v>
-      </c>
-      <c r="AL98" s="43">
+        <v>0.52</v>
+      </c>
+      <c r="X99" s="36">
         <f t="shared" si="54"/>
         <v>0.5</v>
       </c>
-      <c r="AM98" s="1"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1"/>
-      <c r="B99" s="28" t="s">
+      <c r="Y99" s="36">
+        <f t="shared" si="54"/>
+        <v>0.4814814815</v>
+      </c>
+      <c r="Z99" s="36">
+        <f t="shared" si="54"/>
+        <v>0.4642857143</v>
+      </c>
+      <c r="AA99" s="38">
+        <f t="shared" ref="AA99:AF99" si="55">N29</f>
+        <v>0.5833333333</v>
+      </c>
+      <c r="AB99" s="39">
+        <f t="shared" si="55"/>
+        <v>0.56</v>
+      </c>
+      <c r="AC99" s="39">
+        <f t="shared" si="55"/>
+        <v>0.5384615385</v>
+      </c>
+      <c r="AD99" s="39">
+        <f t="shared" si="55"/>
+        <v>0.5185185185</v>
+      </c>
+      <c r="AE99" s="39">
+        <f t="shared" si="55"/>
+        <v>0.5</v>
+      </c>
+      <c r="AF99" s="39">
+        <f t="shared" si="55"/>
+        <v>0.4827586207</v>
+      </c>
+      <c r="AG99" s="41">
+        <f t="shared" ref="AG99:AL99" si="56">N31</f>
+        <v>0.6</v>
+      </c>
+      <c r="AH99" s="42">
+        <f t="shared" si="56"/>
+        <v>0.5769230769</v>
+      </c>
+      <c r="AI99" s="42">
+        <f t="shared" si="56"/>
+        <v>0.5555555556</v>
+      </c>
+      <c r="AJ99" s="42">
+        <f t="shared" si="56"/>
+        <v>0.5357142857</v>
+      </c>
+      <c r="AK99" s="42">
+        <f t="shared" si="56"/>
+        <v>0.5172413793</v>
+      </c>
+      <c r="AL99" s="43">
+        <f t="shared" si="56"/>
+        <v>0.5</v>
+      </c>
+      <c r="AM99" s="1"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1"/>
+      <c r="B100" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C99" s="29">
-        <f t="shared" ref="C99:H99" si="55">N22</f>
+      <c r="C100" s="29">
+        <f t="shared" ref="C100:H100" si="57">N22</f>
         <v>0.5</v>
       </c>
-      <c r="D99" s="30">
-        <f t="shared" si="55"/>
+      <c r="D100" s="30">
+        <f t="shared" si="57"/>
         <v>0.4651162791</v>
       </c>
-      <c r="E99" s="30">
-        <f t="shared" si="55"/>
+      <c r="E100" s="30">
+        <f t="shared" si="57"/>
         <v>0.4545454545</v>
       </c>
-      <c r="F99" s="30">
-        <f t="shared" si="55"/>
+      <c r="F100" s="30">
+        <f t="shared" si="57"/>
         <v>0.4418604651</v>
       </c>
-      <c r="G99" s="30">
-        <f t="shared" si="55"/>
+      <c r="G100" s="30">
+        <f t="shared" si="57"/>
         <v>0.4130434783</v>
       </c>
-      <c r="H99" s="30">
-        <f t="shared" si="55"/>
+      <c r="H100" s="30">
+        <f t="shared" si="57"/>
         <v>0.3921568627</v>
       </c>
-      <c r="I99" s="29">
-        <f t="shared" ref="I99:N99" si="56">N24</f>
+      <c r="I100" s="29">
+        <f t="shared" ref="I100:N100" si="58">N24</f>
         <v>0.5227272727</v>
       </c>
-      <c r="J99" s="30">
-        <f t="shared" si="56"/>
+      <c r="J100" s="30">
+        <f t="shared" si="58"/>
         <v>0.512195122</v>
       </c>
-      <c r="K99" s="30">
-        <f t="shared" si="56"/>
+      <c r="K100" s="30">
+        <f t="shared" si="58"/>
         <v>0.4761904762</v>
       </c>
-      <c r="L99" s="30">
-        <f t="shared" si="56"/>
+      <c r="L100" s="30">
+        <f t="shared" si="58"/>
         <v>0.4489795918</v>
       </c>
-      <c r="M99" s="30">
-        <f t="shared" si="56"/>
+      <c r="M100" s="30">
+        <f t="shared" si="58"/>
         <v>0.4375</v>
       </c>
-      <c r="N99" s="30">
-        <f t="shared" si="56"/>
+      <c r="N100" s="30">
+        <f t="shared" si="58"/>
         <v>0.4166666667</v>
       </c>
-      <c r="O99" s="32">
-        <f t="shared" ref="O99:T99" si="57">N26</f>
+      <c r="O100" s="32">
+        <f t="shared" ref="O100:T100" si="59">N26</f>
         <v>0.55</v>
       </c>
-      <c r="P99" s="33">
-        <f t="shared" si="57"/>
+      <c r="P100" s="33">
+        <f t="shared" si="59"/>
         <v>0.5306122449</v>
       </c>
-      <c r="Q99" s="33">
-        <f t="shared" si="57"/>
-        <v>0.5</v>
-      </c>
-      <c r="R99" s="33">
-        <f t="shared" si="57"/>
-        <v>0.4705882353</v>
-      </c>
-      <c r="S99" s="33">
-        <f t="shared" si="57"/>
-        <v>0.462962963</v>
-      </c>
-      <c r="T99" s="33">
-        <f t="shared" si="57"/>
-        <v>0.4444444444</v>
-      </c>
-      <c r="U99" s="35">
-        <f t="shared" ref="U99:Z99" si="58">N28</f>
-        <v>0.5744680851</v>
-      </c>
-      <c r="V99" s="36">
-        <f t="shared" si="58"/>
-        <v>0.54</v>
-      </c>
-      <c r="W99" s="36">
-        <f t="shared" si="58"/>
-        <v>0.5283018868</v>
-      </c>
-      <c r="X99" s="36">
-        <f t="shared" si="58"/>
-        <v>0.4893617021</v>
-      </c>
-      <c r="Y99" s="36">
-        <f t="shared" si="58"/>
-        <v>0.4727272727</v>
-      </c>
-      <c r="Z99" s="36">
-        <f t="shared" si="58"/>
-        <v>0.4655172414</v>
-      </c>
-      <c r="AA99" s="38">
-        <f t="shared" ref="AA99:AF99" si="59">N30</f>
-        <v>0.58</v>
-      </c>
-      <c r="AB99" s="39">
-        <f t="shared" si="59"/>
-        <v>0.56</v>
-      </c>
-      <c r="AC99" s="39">
-        <f t="shared" si="59"/>
-        <v>0.5454545455</v>
-      </c>
-      <c r="AD99" s="39">
-        <f t="shared" si="59"/>
-        <v>0.52</v>
-      </c>
-      <c r="AE99" s="39">
+      <c r="Q100" s="33">
         <f t="shared" si="59"/>
         <v>0.5</v>
       </c>
-      <c r="AF99" s="39">
+      <c r="R100" s="33">
         <f t="shared" si="59"/>
+        <v>0.4705882353</v>
+      </c>
+      <c r="S100" s="33">
+        <f t="shared" si="59"/>
+        <v>0.462962963</v>
+      </c>
+      <c r="T100" s="33">
+        <f t="shared" si="59"/>
+        <v>0.4444444444</v>
+      </c>
+      <c r="U100" s="35">
+        <f t="shared" ref="U100:Z100" si="60">N28</f>
+        <v>0.5744680851</v>
+      </c>
+      <c r="V100" s="36">
+        <f t="shared" si="60"/>
+        <v>0.54</v>
+      </c>
+      <c r="W100" s="36">
+        <f t="shared" si="60"/>
+        <v>0.5283018868</v>
+      </c>
+      <c r="X100" s="36">
+        <f t="shared" si="60"/>
+        <v>0.4893617021</v>
+      </c>
+      <c r="Y100" s="36">
+        <f t="shared" si="60"/>
+        <v>0.4727272727</v>
+      </c>
+      <c r="Z100" s="36">
+        <f t="shared" si="60"/>
+        <v>0.4655172414</v>
+      </c>
+      <c r="AA100" s="38">
+        <f t="shared" ref="AA100:AF100" si="61">N30</f>
+        <v>0.58</v>
+      </c>
+      <c r="AB100" s="39">
+        <f t="shared" si="61"/>
+        <v>0.56</v>
+      </c>
+      <c r="AC100" s="39">
+        <f t="shared" si="61"/>
+        <v>0.5454545455</v>
+      </c>
+      <c r="AD100" s="39">
+        <f t="shared" si="61"/>
+        <v>0.52</v>
+      </c>
+      <c r="AE100" s="39">
+        <f t="shared" si="61"/>
+        <v>0.5</v>
+      </c>
+      <c r="AF100" s="39">
+        <f t="shared" si="61"/>
         <v>0.4905660377</v>
       </c>
-      <c r="AG99" s="41">
-        <f t="shared" ref="AG99:AL99" si="60">N32</f>
+      <c r="AG100" s="41">
+        <f t="shared" ref="AG100:AL100" si="62">N32</f>
         <v>0.5961538462</v>
       </c>
-      <c r="AH99" s="42">
-        <f t="shared" si="60"/>
+      <c r="AH100" s="42">
+        <f t="shared" si="62"/>
         <v>0.5740740741</v>
       </c>
-      <c r="AI99" s="42">
-        <f t="shared" si="60"/>
+      <c r="AI100" s="42">
+        <f t="shared" si="62"/>
         <v>0.5593220339</v>
       </c>
-      <c r="AJ99" s="42">
-        <f t="shared" si="60"/>
+      <c r="AJ100" s="42">
+        <f t="shared" si="62"/>
         <v>0.5333333333</v>
       </c>
-      <c r="AK99" s="42">
-        <f t="shared" si="60"/>
+      <c r="AK100" s="42">
+        <f t="shared" si="62"/>
         <v>0.5081967213</v>
       </c>
-      <c r="AL99" s="43">
-        <f t="shared" si="60"/>
+      <c r="AL100" s="43">
+        <f t="shared" si="62"/>
         <v>0.4918032787</v>
       </c>
-      <c r="AM99" s="1"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
-      <c r="P100" s="1"/>
-      <c r="Q100" s="1"/>
-      <c r="R100" s="1"/>
-      <c r="S100" s="1"/>
-      <c r="T100" s="1"/>
-      <c r="U100" s="1"/>
-      <c r="V100" s="1"/>
-      <c r="W100" s="1"/>
-      <c r="X100" s="1"/>
-      <c r="Y100" s="1"/>
-      <c r="Z100" s="1"/>
-      <c r="AA100" s="1"/>
-      <c r="AB100" s="1"/>
-      <c r="AC100" s="1"/>
-      <c r="AD100" s="1"/>
-      <c r="AE100" s="1"/>
-      <c r="AF100" s="1"/>
-      <c r="AG100" s="1"/>
-      <c r="AH100" s="1"/>
-      <c r="AI100" s="1"/>
-      <c r="AJ100" s="1"/>
-      <c r="AK100" s="1"/>
-      <c r="AL100" s="1"/>
       <c r="AM100" s="1"/>
     </row>
     <row r="101">
@@ -7332,10 +7585,15 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
-      <c r="K106" s="1"/>
-      <c r="L106" s="1"/>
-      <c r="M106" s="1"/>
-      <c r="N106" s="1"/>
+      <c r="K106" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L106" s="5"/>
+      <c r="M106" s="6"/>
+      <c r="N106" s="44">
+        <f>MAX(C128:AL128)</f>
+        <v>0.01299512195</v>
+      </c>
       <c r="O106" s="1"/>
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
@@ -7373,10 +7631,15 @@
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
-      <c r="K107" s="1"/>
-      <c r="L107" s="1"/>
-      <c r="M107" s="1"/>
-      <c r="N107" s="1"/>
+      <c r="K107" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L107" s="5"/>
+      <c r="M107" s="6"/>
+      <c r="N107" s="45">
+        <f>N106</f>
+        <v>0.01299512195</v>
+      </c>
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
@@ -8184,345 +8447,345 @@
     </row>
     <row r="127">
       <c r="A127" s="1"/>
-      <c r="B127" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C127" s="29">
-        <f t="shared" ref="C127:H127" si="61">N38</f>
-        <v>0.5</v>
-      </c>
-      <c r="D127" s="30">
-        <f t="shared" si="61"/>
-        <v>0.5457003786</v>
-      </c>
-      <c r="E127" s="30">
-        <f t="shared" si="61"/>
-        <v>0.5454545455</v>
-      </c>
-      <c r="F127" s="30">
-        <f t="shared" si="61"/>
-        <v>0.5509464575</v>
-      </c>
-      <c r="G127" s="30">
-        <f t="shared" si="61"/>
-        <v>0.5905482042</v>
-      </c>
-      <c r="H127" s="30">
-        <f t="shared" si="61"/>
-        <v>0.6155324875</v>
-      </c>
-      <c r="I127" s="29">
-        <f t="shared" ref="I127:N127" si="62">N40</f>
-        <v>0.4783527423</v>
-      </c>
-      <c r="J127" s="30">
-        <f t="shared" si="62"/>
-        <v>0.4753123141</v>
-      </c>
-      <c r="K127" s="30">
-        <f t="shared" si="62"/>
-        <v>0.5258709544</v>
-      </c>
-      <c r="L127" s="30">
-        <f t="shared" si="62"/>
-        <v>0.560183257</v>
-      </c>
-      <c r="M127" s="30">
-        <f t="shared" si="62"/>
-        <v>0.5649857955</v>
-      </c>
-      <c r="N127" s="30">
-        <f t="shared" si="62"/>
-        <v>0.5896464646</v>
-      </c>
-      <c r="O127" s="32">
-        <f t="shared" ref="O127:T127" si="63">N42</f>
-        <v>0.4454166667</v>
-      </c>
-      <c r="P127" s="33">
+      <c r="B127" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="47">
+        <f t="shared" ref="C127:AL127" si="63">1.03 * C99 - 0.0158</f>
+        <v>0.4992</v>
+      </c>
+      <c r="D127" s="47">
         <f t="shared" si="63"/>
-        <v>0.4603637373</v>
-      </c>
-      <c r="Q127" s="33">
+        <v>0.4746761905</v>
+      </c>
+      <c r="E127" s="47">
         <f t="shared" si="63"/>
-        <v>0.5</v>
-      </c>
-      <c r="R127" s="33">
+        <v>0.4523818182</v>
+      </c>
+      <c r="F127" s="47">
         <f t="shared" si="63"/>
-        <v>0.538638985</v>
-      </c>
-      <c r="S127" s="33">
+        <v>0.432026087</v>
+      </c>
+      <c r="G127" s="47">
         <f t="shared" si="63"/>
-        <v>0.535608139</v>
-      </c>
-      <c r="T127" s="33">
+        <v>0.4133666667</v>
+      </c>
+      <c r="H127" s="47">
         <f t="shared" si="63"/>
-        <v>0.5555555556</v>
-      </c>
-      <c r="U127" s="35">
-        <f t="shared" ref="U127:Z127" si="64">N44</f>
-        <v>0.4161298186</v>
-      </c>
-      <c r="V127" s="36">
-        <f t="shared" si="64"/>
-        <v>0.4616615385</v>
-      </c>
-      <c r="W127" s="36">
-        <f t="shared" si="64"/>
-        <v>0.4632636854</v>
-      </c>
-      <c r="X127" s="36">
-        <f t="shared" si="64"/>
-        <v>0.521050249</v>
-      </c>
-      <c r="Y127" s="36">
-        <f t="shared" si="64"/>
-        <v>0.5358677686</v>
-      </c>
-      <c r="Z127" s="36">
-        <f t="shared" si="64"/>
-        <v>0.5332479649</v>
-      </c>
-      <c r="AA127" s="38">
-        <f t="shared" ref="AA127:AF127" si="65">N46</f>
-        <v>0.4233142857</v>
-      </c>
-      <c r="AB127" s="39">
-        <f t="shared" si="65"/>
-        <v>0.44</v>
-      </c>
-      <c r="AC127" s="39">
-        <f t="shared" si="65"/>
-        <v>0.4474616293</v>
-      </c>
-      <c r="AD127" s="39">
-        <f t="shared" si="65"/>
-        <v>0.4785142857</v>
-      </c>
-      <c r="AE127" s="39">
-        <f t="shared" si="65"/>
-        <v>0.5</v>
-      </c>
-      <c r="AF127" s="39">
-        <f t="shared" si="65"/>
-        <v>0.5015002797</v>
-      </c>
-      <c r="AG127" s="41">
-        <f t="shared" ref="AG127:AL127" si="66">N48</f>
-        <v>0.4076676529</v>
-      </c>
-      <c r="AH127" s="42">
-        <f t="shared" si="66"/>
-        <v>0.4287608596</v>
-      </c>
-      <c r="AI127" s="42">
-        <f t="shared" si="66"/>
-        <v>0.4368859523</v>
-      </c>
-      <c r="AJ127" s="42">
-        <f t="shared" si="66"/>
-        <v>0.469037037</v>
-      </c>
-      <c r="AK127" s="42">
-        <f t="shared" si="66"/>
-        <v>0.5006897787</v>
-      </c>
-      <c r="AL127" s="43">
-        <f t="shared" si="66"/>
-        <v>0.5162590701</v>
+        <v>0.3962</v>
+      </c>
+      <c r="I127" s="47">
+        <f t="shared" si="63"/>
+        <v>0.5237238095</v>
+      </c>
+      <c r="J127" s="47">
+        <f t="shared" si="63"/>
+        <v>0.4992</v>
+      </c>
+      <c r="K127" s="47">
+        <f t="shared" si="63"/>
+        <v>0.4768086957</v>
+      </c>
+      <c r="L127" s="47">
+        <f t="shared" si="63"/>
+        <v>0.4562833333</v>
+      </c>
+      <c r="M127" s="47">
+        <f t="shared" si="63"/>
+        <v>0.4374</v>
+      </c>
+      <c r="N127" s="47">
+        <f t="shared" si="63"/>
+        <v>0.4199692308</v>
+      </c>
+      <c r="O127" s="47">
+        <f t="shared" si="63"/>
+        <v>0.5460181818</v>
+      </c>
+      <c r="P127" s="47">
+        <f t="shared" si="63"/>
+        <v>0.5215913043</v>
+      </c>
+      <c r="Q127" s="47">
+        <f t="shared" si="63"/>
+        <v>0.4992</v>
+      </c>
+      <c r="R127" s="47">
+        <f t="shared" si="63"/>
+        <v>0.4786</v>
+      </c>
+      <c r="S127" s="47">
+        <f t="shared" si="63"/>
+        <v>0.4595846154</v>
+      </c>
+      <c r="T127" s="47">
+        <f t="shared" si="63"/>
+        <v>0.4419777778</v>
+      </c>
+      <c r="U127" s="47">
+        <f t="shared" si="63"/>
+        <v>0.566373913</v>
+      </c>
+      <c r="V127" s="47">
+        <f t="shared" si="63"/>
+        <v>0.5421166667</v>
+      </c>
+      <c r="W127" s="47">
+        <f t="shared" si="63"/>
+        <v>0.5198</v>
+      </c>
+      <c r="X127" s="47">
+        <f t="shared" si="63"/>
+        <v>0.4992</v>
+      </c>
+      <c r="Y127" s="47">
+        <f t="shared" si="63"/>
+        <v>0.4801259259</v>
+      </c>
+      <c r="Z127" s="47">
+        <f t="shared" si="63"/>
+        <v>0.4624142857</v>
+      </c>
+      <c r="AA127" s="47">
+        <f t="shared" si="63"/>
+        <v>0.5850333333</v>
+      </c>
+      <c r="AB127" s="47">
+        <f t="shared" si="63"/>
+        <v>0.561</v>
+      </c>
+      <c r="AC127" s="47">
+        <f t="shared" si="63"/>
+        <v>0.5388153846</v>
+      </c>
+      <c r="AD127" s="47">
+        <f t="shared" si="63"/>
+        <v>0.5182740741</v>
+      </c>
+      <c r="AE127" s="47">
+        <f t="shared" si="63"/>
+        <v>0.4992</v>
+      </c>
+      <c r="AF127" s="47">
+        <f t="shared" si="63"/>
+        <v>0.4814413793</v>
+      </c>
+      <c r="AG127" s="47">
+        <f t="shared" si="63"/>
+        <v>0.6022</v>
+      </c>
+      <c r="AH127" s="47">
+        <f t="shared" si="63"/>
+        <v>0.5784307692</v>
+      </c>
+      <c r="AI127" s="47">
+        <f t="shared" si="63"/>
+        <v>0.5564222222</v>
+      </c>
+      <c r="AJ127" s="47">
+        <f t="shared" si="63"/>
+        <v>0.5359857143</v>
+      </c>
+      <c r="AK127" s="47">
+        <f t="shared" si="63"/>
+        <v>0.5169586207</v>
+      </c>
+      <c r="AL127" s="47">
+        <f t="shared" si="63"/>
+        <v>0.4992</v>
       </c>
       <c r="AM127" s="1"/>
     </row>
     <row r="128">
       <c r="A128" s="1"/>
-      <c r="B128" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C128" s="29">
-        <f t="shared" ref="C128:H128" si="67">N39</f>
-        <v>0.5</v>
-      </c>
-      <c r="D128" s="30">
-        <f t="shared" si="67"/>
-        <v>0.5238095238</v>
-      </c>
-      <c r="E128" s="30">
-        <f t="shared" si="67"/>
-        <v>0.5454545455</v>
-      </c>
-      <c r="F128" s="30">
-        <f t="shared" si="67"/>
-        <v>0.5652173913</v>
-      </c>
-      <c r="G128" s="30">
-        <f t="shared" si="67"/>
-        <v>0.5833333333</v>
-      </c>
-      <c r="H128" s="30">
-        <f t="shared" si="67"/>
-        <v>0.6</v>
-      </c>
-      <c r="I128" s="29">
-        <f t="shared" ref="I128:N128" si="68">N41</f>
-        <v>0.4761904762</v>
-      </c>
-      <c r="J128" s="30">
-        <f t="shared" si="68"/>
-        <v>0.5</v>
-      </c>
-      <c r="K128" s="30">
-        <f t="shared" si="68"/>
-        <v>0.5217391304</v>
-      </c>
-      <c r="L128" s="30">
-        <f t="shared" si="68"/>
-        <v>0.5416666667</v>
-      </c>
-      <c r="M128" s="30">
-        <f t="shared" si="68"/>
-        <v>0.56</v>
-      </c>
-      <c r="N128" s="30">
-        <f t="shared" si="68"/>
-        <v>0.5769230769</v>
-      </c>
-      <c r="O128" s="32">
-        <f t="shared" ref="O128:T128" si="69">N43</f>
-        <v>0.4545454545</v>
-      </c>
-      <c r="P128" s="33">
-        <f t="shared" si="69"/>
-        <v>0.4782608696</v>
-      </c>
-      <c r="Q128" s="33">
-        <f t="shared" si="69"/>
-        <v>0.5</v>
-      </c>
-      <c r="R128" s="33">
-        <f t="shared" si="69"/>
-        <v>0.52</v>
-      </c>
-      <c r="S128" s="33">
-        <f t="shared" si="69"/>
-        <v>0.5384615385</v>
-      </c>
-      <c r="T128" s="33">
-        <f t="shared" si="69"/>
-        <v>0.5555555556</v>
-      </c>
-      <c r="U128" s="35">
-        <f t="shared" ref="U128:Z128" si="70">N45</f>
-        <v>0.4347826087</v>
-      </c>
-      <c r="V128" s="36">
-        <f t="shared" si="70"/>
-        <v>0.4583333333</v>
-      </c>
-      <c r="W128" s="36">
-        <f t="shared" si="70"/>
-        <v>0.48</v>
-      </c>
-      <c r="X128" s="36">
-        <f t="shared" si="70"/>
-        <v>0.5</v>
-      </c>
-      <c r="Y128" s="36">
-        <f t="shared" si="70"/>
-        <v>0.5185185185</v>
-      </c>
-      <c r="Z128" s="36">
-        <f t="shared" si="70"/>
-        <v>0.5357142857</v>
-      </c>
-      <c r="AA128" s="38">
-        <f t="shared" ref="AA128:AF128" si="71">N47</f>
-        <v>0.4166666667</v>
-      </c>
-      <c r="AB128" s="39">
-        <f t="shared" si="71"/>
-        <v>0.44</v>
-      </c>
-      <c r="AC128" s="39">
-        <f t="shared" si="71"/>
-        <v>0.4615384615</v>
-      </c>
-      <c r="AD128" s="39">
-        <f t="shared" si="71"/>
-        <v>0.4814814815</v>
-      </c>
-      <c r="AE128" s="39">
-        <f t="shared" si="71"/>
-        <v>0.5</v>
-      </c>
-      <c r="AF128" s="39">
-        <f t="shared" si="71"/>
-        <v>0.5172413793</v>
-      </c>
-      <c r="AG128" s="41">
-        <f t="shared" ref="AG128:AL128" si="72">N49</f>
-        <v>0.4</v>
-      </c>
-      <c r="AH128" s="42">
-        <f t="shared" si="72"/>
-        <v>0.4230769231</v>
-      </c>
-      <c r="AI128" s="42">
-        <f t="shared" si="72"/>
-        <v>0.4444444444</v>
-      </c>
-      <c r="AJ128" s="42">
-        <f t="shared" si="72"/>
-        <v>0.4642857143</v>
-      </c>
-      <c r="AK128" s="42">
-        <f t="shared" si="72"/>
-        <v>0.4827586207</v>
-      </c>
-      <c r="AL128" s="43">
-        <f t="shared" si="72"/>
-        <v>0.5</v>
+      <c r="B128" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" s="47">
+        <f t="shared" ref="C128:AL128" si="64">ABS(C127-C100)</f>
+        <v>0.0008</v>
+      </c>
+      <c r="D128" s="47">
+        <f t="shared" si="64"/>
+        <v>0.009559911406</v>
+      </c>
+      <c r="E128" s="47">
+        <f t="shared" si="64"/>
+        <v>0.002163636364</v>
+      </c>
+      <c r="F128" s="47">
+        <f t="shared" si="64"/>
+        <v>0.00983437816</v>
+      </c>
+      <c r="G128" s="47">
+        <f t="shared" si="64"/>
+        <v>0.0003231884058</v>
+      </c>
+      <c r="H128" s="47">
+        <f t="shared" si="64"/>
+        <v>0.004043137255</v>
+      </c>
+      <c r="I128" s="47">
+        <f t="shared" si="64"/>
+        <v>0.0009965367965</v>
+      </c>
+      <c r="J128" s="47">
+        <f t="shared" si="64"/>
+        <v>0.01299512195</v>
+      </c>
+      <c r="K128" s="47">
+        <f t="shared" si="64"/>
+        <v>0.0006182194617</v>
+      </c>
+      <c r="L128" s="47">
+        <f t="shared" si="64"/>
+        <v>0.007303741497</v>
+      </c>
+      <c r="M128" s="47">
+        <f t="shared" si="64"/>
+        <v>0.0001</v>
+      </c>
+      <c r="N128" s="47">
+        <f t="shared" si="64"/>
+        <v>0.003302564103</v>
+      </c>
+      <c r="O128" s="47">
+        <f t="shared" si="64"/>
+        <v>0.003981818182</v>
+      </c>
+      <c r="P128" s="47">
+        <f t="shared" si="64"/>
+        <v>0.00902094055</v>
+      </c>
+      <c r="Q128" s="47">
+        <f t="shared" si="64"/>
+        <v>0.0008</v>
+      </c>
+      <c r="R128" s="47">
+        <f t="shared" si="64"/>
+        <v>0.008011764706</v>
+      </c>
+      <c r="S128" s="47">
+        <f t="shared" si="64"/>
+        <v>0.003378347578</v>
+      </c>
+      <c r="T128" s="47">
+        <f t="shared" si="64"/>
+        <v>0.002466666667</v>
+      </c>
+      <c r="U128" s="47">
+        <f t="shared" si="64"/>
+        <v>0.008094172063</v>
+      </c>
+      <c r="V128" s="47">
+        <f t="shared" si="64"/>
+        <v>0.002116666667</v>
+      </c>
+      <c r="W128" s="47">
+        <f t="shared" si="64"/>
+        <v>0.008501886792</v>
+      </c>
+      <c r="X128" s="47">
+        <f t="shared" si="64"/>
+        <v>0.009838297872</v>
+      </c>
+      <c r="Y128" s="47">
+        <f t="shared" si="64"/>
+        <v>0.007398653199</v>
+      </c>
+      <c r="Z128" s="47">
+        <f t="shared" si="64"/>
+        <v>0.003102955665</v>
+      </c>
+      <c r="AA128" s="47">
+        <f t="shared" si="64"/>
+        <v>0.005033333333</v>
+      </c>
+      <c r="AB128" s="47">
+        <f t="shared" si="64"/>
+        <v>0.001</v>
+      </c>
+      <c r="AC128" s="47">
+        <f t="shared" si="64"/>
+        <v>0.006639160839</v>
+      </c>
+      <c r="AD128" s="47">
+        <f t="shared" si="64"/>
+        <v>0.001725925926</v>
+      </c>
+      <c r="AE128" s="47">
+        <f t="shared" si="64"/>
+        <v>0.0008</v>
+      </c>
+      <c r="AF128" s="47">
+        <f t="shared" si="64"/>
+        <v>0.009124658426</v>
+      </c>
+      <c r="AG128" s="47">
+        <f t="shared" si="64"/>
+        <v>0.006046153846</v>
+      </c>
+      <c r="AH128" s="47">
+        <f t="shared" si="64"/>
+        <v>0.004356695157</v>
+      </c>
+      <c r="AI128" s="47">
+        <f t="shared" si="64"/>
+        <v>0.002899811676</v>
+      </c>
+      <c r="AJ128" s="47">
+        <f t="shared" si="64"/>
+        <v>0.002652380952</v>
+      </c>
+      <c r="AK128" s="47">
+        <f t="shared" si="64"/>
+        <v>0.008761899378</v>
+      </c>
+      <c r="AL128" s="47">
+        <f t="shared" si="64"/>
+        <v>0.007396721311</v>
       </c>
       <c r="AM128" s="1"/>
     </row>
     <row r="129">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
-      <c r="C129" s="46"/>
-      <c r="D129" s="46"/>
-      <c r="E129" s="46"/>
-      <c r="F129" s="46"/>
-      <c r="G129" s="46"/>
-      <c r="H129" s="46"/>
-      <c r="I129" s="46"/>
-      <c r="J129" s="46"/>
-      <c r="K129" s="46"/>
-      <c r="L129" s="46"/>
-      <c r="M129" s="46"/>
-      <c r="N129" s="46"/>
-      <c r="O129" s="46"/>
-      <c r="P129" s="46"/>
-      <c r="Q129" s="46"/>
-      <c r="R129" s="46"/>
-      <c r="S129" s="46"/>
-      <c r="T129" s="46"/>
-      <c r="U129" s="46"/>
-      <c r="V129" s="46"/>
-      <c r="W129" s="46"/>
-      <c r="X129" s="46"/>
-      <c r="Y129" s="46"/>
-      <c r="Z129" s="46"/>
-      <c r="AA129" s="46"/>
-      <c r="AB129" s="46"/>
-      <c r="AC129" s="46"/>
-      <c r="AD129" s="46"/>
-      <c r="AE129" s="46"/>
-      <c r="AF129" s="46"/>
-      <c r="AG129" s="46"/>
-      <c r="AH129" s="46"/>
-      <c r="AI129" s="46"/>
-      <c r="AJ129" s="46"/>
-      <c r="AK129" s="46"/>
-      <c r="AL129" s="46"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+      <c r="O129" s="1"/>
+      <c r="P129" s="1"/>
+      <c r="Q129" s="1"/>
+      <c r="R129" s="1"/>
+      <c r="S129" s="1"/>
+      <c r="T129" s="1"/>
+      <c r="U129" s="1"/>
+      <c r="V129" s="1"/>
+      <c r="W129" s="1"/>
+      <c r="X129" s="1"/>
+      <c r="Y129" s="1"/>
+      <c r="Z129" s="1"/>
+      <c r="AA129" s="1"/>
+      <c r="AB129" s="1"/>
+      <c r="AC129" s="1"/>
+      <c r="AD129" s="1"/>
+      <c r="AE129" s="1"/>
+      <c r="AF129" s="1"/>
+      <c r="AG129" s="1"/>
+      <c r="AH129" s="1"/>
+      <c r="AI129" s="1"/>
+      <c r="AJ129" s="1"/>
+      <c r="AK129" s="1"/>
+      <c r="AL129" s="1"/>
       <c r="AM129" s="1"/>
     </row>
     <row r="130">
@@ -8568,84 +8831,304 @@
     </row>
     <row r="131">
       <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
-      <c r="J131" s="1"/>
-      <c r="K131" s="1"/>
-      <c r="L131" s="1"/>
-      <c r="M131" s="1"/>
-      <c r="N131" s="1"/>
-      <c r="O131" s="1"/>
-      <c r="P131" s="1"/>
-      <c r="Q131" s="1"/>
-      <c r="R131" s="1"/>
-      <c r="S131" s="1"/>
-      <c r="T131" s="1"/>
-      <c r="U131" s="1"/>
-      <c r="V131" s="1"/>
-      <c r="W131" s="1"/>
-      <c r="X131" s="1"/>
-      <c r="Y131" s="1"/>
-      <c r="Z131" s="1"/>
-      <c r="AA131" s="1"/>
-      <c r="AB131" s="1"/>
-      <c r="AC131" s="1"/>
-      <c r="AD131" s="1"/>
-      <c r="AE131" s="1"/>
-      <c r="AF131" s="1"/>
-      <c r="AG131" s="1"/>
-      <c r="AH131" s="1"/>
-      <c r="AI131" s="1"/>
-      <c r="AJ131" s="1"/>
-      <c r="AK131" s="1"/>
-      <c r="AL131" s="1"/>
+      <c r="B131" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" s="29">
+        <f t="shared" ref="C131:H131" si="65">N38</f>
+        <v>0.5</v>
+      </c>
+      <c r="D131" s="30">
+        <f t="shared" si="65"/>
+        <v>0.5457003786</v>
+      </c>
+      <c r="E131" s="30">
+        <f t="shared" si="65"/>
+        <v>0.5454545455</v>
+      </c>
+      <c r="F131" s="30">
+        <f t="shared" si="65"/>
+        <v>0.5509464575</v>
+      </c>
+      <c r="G131" s="30">
+        <f t="shared" si="65"/>
+        <v>0.5905482042</v>
+      </c>
+      <c r="H131" s="30">
+        <f t="shared" si="65"/>
+        <v>0.6155324875</v>
+      </c>
+      <c r="I131" s="29">
+        <f t="shared" ref="I131:N131" si="66">N40</f>
+        <v>0.4783527423</v>
+      </c>
+      <c r="J131" s="30">
+        <f t="shared" si="66"/>
+        <v>0.4753123141</v>
+      </c>
+      <c r="K131" s="30">
+        <f t="shared" si="66"/>
+        <v>0.5258709544</v>
+      </c>
+      <c r="L131" s="30">
+        <f t="shared" si="66"/>
+        <v>0.560183257</v>
+      </c>
+      <c r="M131" s="30">
+        <f t="shared" si="66"/>
+        <v>0.5649857955</v>
+      </c>
+      <c r="N131" s="30">
+        <f t="shared" si="66"/>
+        <v>0.5896464646</v>
+      </c>
+      <c r="O131" s="32">
+        <f t="shared" ref="O131:T131" si="67">N42</f>
+        <v>0.4454166667</v>
+      </c>
+      <c r="P131" s="33">
+        <f t="shared" si="67"/>
+        <v>0.4603637373</v>
+      </c>
+      <c r="Q131" s="33">
+        <f t="shared" si="67"/>
+        <v>0.5</v>
+      </c>
+      <c r="R131" s="33">
+        <f t="shared" si="67"/>
+        <v>0.538638985</v>
+      </c>
+      <c r="S131" s="33">
+        <f t="shared" si="67"/>
+        <v>0.535608139</v>
+      </c>
+      <c r="T131" s="33">
+        <f t="shared" si="67"/>
+        <v>0.5555555556</v>
+      </c>
+      <c r="U131" s="35">
+        <f t="shared" ref="U131:Z131" si="68">N44</f>
+        <v>0.4161298186</v>
+      </c>
+      <c r="V131" s="36">
+        <f t="shared" si="68"/>
+        <v>0.4616615385</v>
+      </c>
+      <c r="W131" s="36">
+        <f t="shared" si="68"/>
+        <v>0.4632636854</v>
+      </c>
+      <c r="X131" s="36">
+        <f t="shared" si="68"/>
+        <v>0.521050249</v>
+      </c>
+      <c r="Y131" s="36">
+        <f t="shared" si="68"/>
+        <v>0.5358677686</v>
+      </c>
+      <c r="Z131" s="36">
+        <f t="shared" si="68"/>
+        <v>0.5332479649</v>
+      </c>
+      <c r="AA131" s="38">
+        <f t="shared" ref="AA131:AF131" si="69">N46</f>
+        <v>0.4233142857</v>
+      </c>
+      <c r="AB131" s="39">
+        <f t="shared" si="69"/>
+        <v>0.44</v>
+      </c>
+      <c r="AC131" s="39">
+        <f t="shared" si="69"/>
+        <v>0.4474616293</v>
+      </c>
+      <c r="AD131" s="39">
+        <f t="shared" si="69"/>
+        <v>0.4785142857</v>
+      </c>
+      <c r="AE131" s="39">
+        <f t="shared" si="69"/>
+        <v>0.5</v>
+      </c>
+      <c r="AF131" s="39">
+        <f t="shared" si="69"/>
+        <v>0.5015002797</v>
+      </c>
+      <c r="AG131" s="41">
+        <f t="shared" ref="AG131:AL131" si="70">N48</f>
+        <v>0.4076676529</v>
+      </c>
+      <c r="AH131" s="42">
+        <f t="shared" si="70"/>
+        <v>0.4287608596</v>
+      </c>
+      <c r="AI131" s="42">
+        <f t="shared" si="70"/>
+        <v>0.4368859523</v>
+      </c>
+      <c r="AJ131" s="42">
+        <f t="shared" si="70"/>
+        <v>0.469037037</v>
+      </c>
+      <c r="AK131" s="42">
+        <f t="shared" si="70"/>
+        <v>0.5006897787</v>
+      </c>
+      <c r="AL131" s="43">
+        <f t="shared" si="70"/>
+        <v>0.5162590701</v>
+      </c>
       <c r="AM131" s="1"/>
     </row>
     <row r="132">
       <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
-      <c r="J132" s="1"/>
-      <c r="K132" s="1"/>
-      <c r="L132" s="1"/>
-      <c r="M132" s="1"/>
-      <c r="N132" s="1"/>
-      <c r="O132" s="1"/>
-      <c r="P132" s="1"/>
-      <c r="Q132" s="1"/>
-      <c r="R132" s="1"/>
-      <c r="S132" s="1"/>
-      <c r="T132" s="1"/>
-      <c r="U132" s="1"/>
-      <c r="V132" s="1"/>
-      <c r="W132" s="1"/>
-      <c r="X132" s="1"/>
-      <c r="Y132" s="1"/>
-      <c r="Z132" s="1"/>
-      <c r="AA132" s="1"/>
-      <c r="AB132" s="1"/>
-      <c r="AC132" s="1"/>
-      <c r="AD132" s="1"/>
-      <c r="AE132" s="1"/>
-      <c r="AF132" s="1"/>
-      <c r="AG132" s="1"/>
-      <c r="AH132" s="1"/>
-      <c r="AI132" s="1"/>
-      <c r="AJ132" s="1"/>
-      <c r="AK132" s="1"/>
-      <c r="AL132" s="1"/>
+      <c r="B132" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" s="29">
+        <f t="shared" ref="C132:H132" si="71">N39</f>
+        <v>0.5</v>
+      </c>
+      <c r="D132" s="30">
+        <f t="shared" si="71"/>
+        <v>0.5238095238</v>
+      </c>
+      <c r="E132" s="30">
+        <f t="shared" si="71"/>
+        <v>0.5454545455</v>
+      </c>
+      <c r="F132" s="30">
+        <f t="shared" si="71"/>
+        <v>0.5652173913</v>
+      </c>
+      <c r="G132" s="30">
+        <f t="shared" si="71"/>
+        <v>0.5833333333</v>
+      </c>
+      <c r="H132" s="30">
+        <f t="shared" si="71"/>
+        <v>0.6</v>
+      </c>
+      <c r="I132" s="29">
+        <f t="shared" ref="I132:N132" si="72">N41</f>
+        <v>0.4761904762</v>
+      </c>
+      <c r="J132" s="30">
+        <f t="shared" si="72"/>
+        <v>0.5</v>
+      </c>
+      <c r="K132" s="30">
+        <f t="shared" si="72"/>
+        <v>0.5217391304</v>
+      </c>
+      <c r="L132" s="30">
+        <f t="shared" si="72"/>
+        <v>0.5416666667</v>
+      </c>
+      <c r="M132" s="30">
+        <f t="shared" si="72"/>
+        <v>0.56</v>
+      </c>
+      <c r="N132" s="30">
+        <f t="shared" si="72"/>
+        <v>0.5769230769</v>
+      </c>
+      <c r="O132" s="32">
+        <f t="shared" ref="O132:T132" si="73">N43</f>
+        <v>0.4545454545</v>
+      </c>
+      <c r="P132" s="33">
+        <f t="shared" si="73"/>
+        <v>0.4782608696</v>
+      </c>
+      <c r="Q132" s="33">
+        <f t="shared" si="73"/>
+        <v>0.5</v>
+      </c>
+      <c r="R132" s="33">
+        <f t="shared" si="73"/>
+        <v>0.52</v>
+      </c>
+      <c r="S132" s="33">
+        <f t="shared" si="73"/>
+        <v>0.5384615385</v>
+      </c>
+      <c r="T132" s="33">
+        <f t="shared" si="73"/>
+        <v>0.5555555556</v>
+      </c>
+      <c r="U132" s="35">
+        <f t="shared" ref="U132:Z132" si="74">N45</f>
+        <v>0.4347826087</v>
+      </c>
+      <c r="V132" s="36">
+        <f t="shared" si="74"/>
+        <v>0.4583333333</v>
+      </c>
+      <c r="W132" s="36">
+        <f t="shared" si="74"/>
+        <v>0.48</v>
+      </c>
+      <c r="X132" s="36">
+        <f t="shared" si="74"/>
+        <v>0.5</v>
+      </c>
+      <c r="Y132" s="36">
+        <f t="shared" si="74"/>
+        <v>0.5185185185</v>
+      </c>
+      <c r="Z132" s="36">
+        <f t="shared" si="74"/>
+        <v>0.5357142857</v>
+      </c>
+      <c r="AA132" s="38">
+        <f t="shared" ref="AA132:AF132" si="75">N47</f>
+        <v>0.4166666667</v>
+      </c>
+      <c r="AB132" s="39">
+        <f t="shared" si="75"/>
+        <v>0.44</v>
+      </c>
+      <c r="AC132" s="39">
+        <f t="shared" si="75"/>
+        <v>0.4615384615</v>
+      </c>
+      <c r="AD132" s="39">
+        <f t="shared" si="75"/>
+        <v>0.4814814815</v>
+      </c>
+      <c r="AE132" s="39">
+        <f t="shared" si="75"/>
+        <v>0.5</v>
+      </c>
+      <c r="AF132" s="39">
+        <f t="shared" si="75"/>
+        <v>0.5172413793</v>
+      </c>
+      <c r="AG132" s="41">
+        <f t="shared" ref="AG132:AL132" si="76">N49</f>
+        <v>0.4</v>
+      </c>
+      <c r="AH132" s="42">
+        <f t="shared" si="76"/>
+        <v>0.4230769231</v>
+      </c>
+      <c r="AI132" s="42">
+        <f t="shared" si="76"/>
+        <v>0.4444444444</v>
+      </c>
+      <c r="AJ132" s="42">
+        <f t="shared" si="76"/>
+        <v>0.4642857143</v>
+      </c>
+      <c r="AK132" s="42">
+        <f t="shared" si="76"/>
+        <v>0.4827586207</v>
+      </c>
+      <c r="AL132" s="43">
+        <f t="shared" si="76"/>
+        <v>0.5</v>
+      </c>
       <c r="AM132" s="1"/>
     </row>
     <row r="133">
@@ -8946,10 +9429,15 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
-      <c r="K140" s="1"/>
-      <c r="L140" s="1"/>
-      <c r="M140" s="1"/>
-      <c r="N140" s="1"/>
+      <c r="K140" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L140" s="5"/>
+      <c r="M140" s="6"/>
+      <c r="N140" s="44">
+        <f>MAX(C159:AL159)</f>
+        <v>0.02379547888</v>
+      </c>
       <c r="O140" s="1"/>
       <c r="P140" s="1"/>
       <c r="Q140" s="1"/>
@@ -8987,10 +9475,15 @@
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
-      <c r="K141" s="1"/>
-      <c r="L141" s="1"/>
-      <c r="M141" s="1"/>
-      <c r="N141" s="1"/>
+      <c r="K141" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L141" s="5"/>
+      <c r="M141" s="6"/>
+      <c r="N141" s="45">
+        <f>N140</f>
+        <v>0.02379547888</v>
+      </c>
       <c r="O141" s="1"/>
       <c r="P141" s="1"/>
       <c r="Q141" s="1"/>
@@ -9675,84 +10168,304 @@
     </row>
     <row r="158">
       <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
-      <c r="H158" s="1"/>
-      <c r="I158" s="1"/>
-      <c r="J158" s="1"/>
-      <c r="K158" s="1"/>
-      <c r="L158" s="1"/>
-      <c r="M158" s="1"/>
-      <c r="N158" s="1"/>
-      <c r="O158" s="1"/>
-      <c r="P158" s="1"/>
-      <c r="Q158" s="1"/>
-      <c r="R158" s="1"/>
-      <c r="S158" s="1"/>
-      <c r="T158" s="1"/>
-      <c r="U158" s="1"/>
-      <c r="V158" s="1"/>
-      <c r="W158" s="1"/>
-      <c r="X158" s="1"/>
-      <c r="Y158" s="1"/>
-      <c r="Z158" s="1"/>
-      <c r="AA158" s="1"/>
-      <c r="AB158" s="1"/>
-      <c r="AC158" s="1"/>
-      <c r="AD158" s="1"/>
-      <c r="AE158" s="1"/>
-      <c r="AF158" s="1"/>
-      <c r="AG158" s="1"/>
-      <c r="AH158" s="1"/>
-      <c r="AI158" s="1"/>
-      <c r="AJ158" s="1"/>
-      <c r="AK158" s="1"/>
-      <c r="AL158" s="1"/>
+      <c r="B158" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" s="47">
+        <f t="shared" ref="C158:AL158" si="77">0.895*C131 + 0.0508</f>
+        <v>0.4983</v>
+      </c>
+      <c r="D158" s="47">
+        <f t="shared" si="77"/>
+        <v>0.5392018388</v>
+      </c>
+      <c r="E158" s="47">
+        <f t="shared" si="77"/>
+        <v>0.5389818182</v>
+      </c>
+      <c r="F158" s="47">
+        <f t="shared" si="77"/>
+        <v>0.5438970795</v>
+      </c>
+      <c r="G158" s="47">
+        <f t="shared" si="77"/>
+        <v>0.5793406427</v>
+      </c>
+      <c r="H158" s="47">
+        <f t="shared" si="77"/>
+        <v>0.6017015763</v>
+      </c>
+      <c r="I158" s="47">
+        <f t="shared" si="77"/>
+        <v>0.4789257044</v>
+      </c>
+      <c r="J158" s="47">
+        <f t="shared" si="77"/>
+        <v>0.4762045211</v>
+      </c>
+      <c r="K158" s="47">
+        <f t="shared" si="77"/>
+        <v>0.5214545042</v>
+      </c>
+      <c r="L158" s="47">
+        <f t="shared" si="77"/>
+        <v>0.552164015</v>
+      </c>
+      <c r="M158" s="47">
+        <f t="shared" si="77"/>
+        <v>0.5564622869</v>
+      </c>
+      <c r="N158" s="47">
+        <f t="shared" si="77"/>
+        <v>0.5785335859</v>
+      </c>
+      <c r="O158" s="47">
+        <f t="shared" si="77"/>
+        <v>0.4494479167</v>
+      </c>
+      <c r="P158" s="47">
+        <f t="shared" si="77"/>
+        <v>0.4628255449</v>
+      </c>
+      <c r="Q158" s="47">
+        <f t="shared" si="77"/>
+        <v>0.4983</v>
+      </c>
+      <c r="R158" s="47">
+        <f t="shared" si="77"/>
+        <v>0.5328818916</v>
+      </c>
+      <c r="S158" s="47">
+        <f t="shared" si="77"/>
+        <v>0.5301692844</v>
+      </c>
+      <c r="T158" s="47">
+        <f t="shared" si="77"/>
+        <v>0.5480222222</v>
+      </c>
+      <c r="U158" s="47">
+        <f t="shared" si="77"/>
+        <v>0.4232361876</v>
+      </c>
+      <c r="V158" s="47">
+        <f t="shared" si="77"/>
+        <v>0.4639870769</v>
+      </c>
+      <c r="W158" s="47">
+        <f t="shared" si="77"/>
+        <v>0.4654209984</v>
+      </c>
+      <c r="X158" s="47">
+        <f t="shared" si="77"/>
+        <v>0.5171399728</v>
+      </c>
+      <c r="Y158" s="47">
+        <f t="shared" si="77"/>
+        <v>0.5304016529</v>
+      </c>
+      <c r="Z158" s="47">
+        <f t="shared" si="77"/>
+        <v>0.5280569286</v>
+      </c>
+      <c r="AA158" s="47">
+        <f t="shared" si="77"/>
+        <v>0.4296662857</v>
+      </c>
+      <c r="AB158" s="47">
+        <f t="shared" si="77"/>
+        <v>0.4446</v>
+      </c>
+      <c r="AC158" s="47">
+        <f t="shared" si="77"/>
+        <v>0.4512781582</v>
+      </c>
+      <c r="AD158" s="47">
+        <f t="shared" si="77"/>
+        <v>0.4790702857</v>
+      </c>
+      <c r="AE158" s="47">
+        <f t="shared" si="77"/>
+        <v>0.4983</v>
+      </c>
+      <c r="AF158" s="47">
+        <f t="shared" si="77"/>
+        <v>0.4996427503</v>
+      </c>
+      <c r="AG158" s="47">
+        <f t="shared" si="77"/>
+        <v>0.4156625493</v>
+      </c>
+      <c r="AH158" s="47">
+        <f t="shared" si="77"/>
+        <v>0.4345409694</v>
+      </c>
+      <c r="AI158" s="47">
+        <f t="shared" si="77"/>
+        <v>0.4418129273</v>
+      </c>
+      <c r="AJ158" s="47">
+        <f t="shared" si="77"/>
+        <v>0.4705881481</v>
+      </c>
+      <c r="AK158" s="47">
+        <f t="shared" si="77"/>
+        <v>0.498917352</v>
+      </c>
+      <c r="AL158" s="47">
+        <f t="shared" si="77"/>
+        <v>0.5128518678</v>
+      </c>
       <c r="AM158" s="1"/>
     </row>
     <row r="159">
       <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
-      <c r="H159" s="1"/>
-      <c r="I159" s="1"/>
-      <c r="J159" s="1"/>
-      <c r="K159" s="1"/>
-      <c r="L159" s="1"/>
-      <c r="M159" s="1"/>
-      <c r="N159" s="1"/>
-      <c r="O159" s="1"/>
-      <c r="P159" s="1"/>
-      <c r="Q159" s="1"/>
-      <c r="R159" s="1"/>
-      <c r="S159" s="1"/>
-      <c r="T159" s="1"/>
-      <c r="U159" s="1"/>
-      <c r="V159" s="1"/>
-      <c r="W159" s="1"/>
-      <c r="X159" s="1"/>
-      <c r="Y159" s="1"/>
-      <c r="Z159" s="1"/>
-      <c r="AA159" s="1"/>
-      <c r="AB159" s="1"/>
-      <c r="AC159" s="1"/>
-      <c r="AD159" s="1"/>
-      <c r="AE159" s="1"/>
-      <c r="AF159" s="1"/>
-      <c r="AG159" s="1"/>
-      <c r="AH159" s="1"/>
-      <c r="AI159" s="1"/>
-      <c r="AJ159" s="1"/>
-      <c r="AK159" s="1"/>
-      <c r="AL159" s="1"/>
+      <c r="B159" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" s="47">
+        <f t="shared" ref="C159:AL159" si="78">ABS(C132-C158)</f>
+        <v>0.0017</v>
+      </c>
+      <c r="D159" s="47">
+        <f t="shared" si="78"/>
+        <v>0.01539231502</v>
+      </c>
+      <c r="E159" s="47">
+        <f t="shared" si="78"/>
+        <v>0.006472727273</v>
+      </c>
+      <c r="F159" s="47">
+        <f t="shared" si="78"/>
+        <v>0.0213203118</v>
+      </c>
+      <c r="G159" s="47">
+        <f t="shared" si="78"/>
+        <v>0.003992690611</v>
+      </c>
+      <c r="H159" s="47">
+        <f t="shared" si="78"/>
+        <v>0.001701576317</v>
+      </c>
+      <c r="I159" s="47">
+        <f t="shared" si="78"/>
+        <v>0.002735228167</v>
+      </c>
+      <c r="J159" s="47">
+        <f t="shared" si="78"/>
+        <v>0.02379547888</v>
+      </c>
+      <c r="K159" s="47">
+        <f t="shared" si="78"/>
+        <v>0.0002846262088</v>
+      </c>
+      <c r="L159" s="47">
+        <f t="shared" si="78"/>
+        <v>0.01049734833</v>
+      </c>
+      <c r="M159" s="47">
+        <f t="shared" si="78"/>
+        <v>0.003537713068</v>
+      </c>
+      <c r="N159" s="47">
+        <f t="shared" si="78"/>
+        <v>0.001610508936</v>
+      </c>
+      <c r="O159" s="47">
+        <f t="shared" si="78"/>
+        <v>0.005097537879</v>
+      </c>
+      <c r="P159" s="47">
+        <f t="shared" si="78"/>
+        <v>0.01543532465</v>
+      </c>
+      <c r="Q159" s="47">
+        <f t="shared" si="78"/>
+        <v>0.0017</v>
+      </c>
+      <c r="R159" s="47">
+        <f t="shared" si="78"/>
+        <v>0.01288189158</v>
+      </c>
+      <c r="S159" s="47">
+        <f t="shared" si="78"/>
+        <v>0.008292254054</v>
+      </c>
+      <c r="T159" s="47">
+        <f t="shared" si="78"/>
+        <v>0.007533333333</v>
+      </c>
+      <c r="U159" s="47">
+        <f t="shared" si="78"/>
+        <v>0.01154642107</v>
+      </c>
+      <c r="V159" s="47">
+        <f t="shared" si="78"/>
+        <v>0.00565374359</v>
+      </c>
+      <c r="W159" s="47">
+        <f t="shared" si="78"/>
+        <v>0.01457900156</v>
+      </c>
+      <c r="X159" s="47">
+        <f t="shared" si="78"/>
+        <v>0.01713997284</v>
+      </c>
+      <c r="Y159" s="47">
+        <f t="shared" si="78"/>
+        <v>0.01188313437</v>
+      </c>
+      <c r="Z159" s="47">
+        <f t="shared" si="78"/>
+        <v>0.007657357149</v>
+      </c>
+      <c r="AA159" s="47">
+        <f t="shared" si="78"/>
+        <v>0.01299961905</v>
+      </c>
+      <c r="AB159" s="47">
+        <f t="shared" si="78"/>
+        <v>0.0046</v>
+      </c>
+      <c r="AC159" s="47">
+        <f t="shared" si="78"/>
+        <v>0.01026030333</v>
+      </c>
+      <c r="AD159" s="47">
+        <f t="shared" si="78"/>
+        <v>0.002411195767</v>
+      </c>
+      <c r="AE159" s="47">
+        <f t="shared" si="78"/>
+        <v>0.0017</v>
+      </c>
+      <c r="AF159" s="47">
+        <f t="shared" si="78"/>
+        <v>0.01759862897</v>
+      </c>
+      <c r="AG159" s="47">
+        <f t="shared" si="78"/>
+        <v>0.01566254931</v>
+      </c>
+      <c r="AH159" s="47">
+        <f t="shared" si="78"/>
+        <v>0.01146404629</v>
+      </c>
+      <c r="AI159" s="47">
+        <f t="shared" si="78"/>
+        <v>0.002631517125</v>
+      </c>
+      <c r="AJ159" s="47">
+        <f t="shared" si="78"/>
+        <v>0.006302433862</v>
+      </c>
+      <c r="AK159" s="47">
+        <f t="shared" si="78"/>
+        <v>0.01615873128</v>
+      </c>
+      <c r="AL159" s="47">
+        <f t="shared" si="78"/>
+        <v>0.01285186778</v>
+      </c>
       <c r="AM159" s="1"/>
     </row>
     <row r="160">
@@ -43424,6 +44137,8 @@
       <c r="E981" s="1"/>
       <c r="F981" s="1"/>
       <c r="G981" s="1"/>
+      <c r="H981" s="1"/>
+      <c r="I981" s="1"/>
       <c r="J981" s="1"/>
       <c r="K981" s="1"/>
       <c r="L981" s="1"/>
@@ -43463,6 +44178,8 @@
       <c r="E982" s="1"/>
       <c r="F982" s="1"/>
       <c r="G982" s="1"/>
+      <c r="H982" s="1"/>
+      <c r="I982" s="1"/>
       <c r="J982" s="1"/>
       <c r="K982" s="1"/>
       <c r="L982" s="1"/>
@@ -43502,6 +44219,8 @@
       <c r="E983" s="1"/>
       <c r="F983" s="1"/>
       <c r="G983" s="1"/>
+      <c r="H983" s="1"/>
+      <c r="I983" s="1"/>
       <c r="J983" s="1"/>
       <c r="K983" s="1"/>
       <c r="L983" s="1"/>
@@ -43541,6 +44260,8 @@
       <c r="E984" s="1"/>
       <c r="F984" s="1"/>
       <c r="G984" s="1"/>
+      <c r="H984" s="1"/>
+      <c r="I984" s="1"/>
       <c r="J984" s="1"/>
       <c r="K984" s="1"/>
       <c r="L984" s="1"/>
@@ -43652,6 +44373,12 @@
     </row>
     <row r="987">
       <c r="A987" s="1"/>
+      <c r="B987" s="1"/>
+      <c r="C987" s="1"/>
+      <c r="D987" s="1"/>
+      <c r="E987" s="1"/>
+      <c r="F987" s="1"/>
+      <c r="G987" s="1"/>
       <c r="J987" s="1"/>
       <c r="K987" s="1"/>
       <c r="L987" s="1"/>
@@ -43685,6 +44412,12 @@
     </row>
     <row r="988">
       <c r="A988" s="1"/>
+      <c r="B988" s="1"/>
+      <c r="C988" s="1"/>
+      <c r="D988" s="1"/>
+      <c r="E988" s="1"/>
+      <c r="F988" s="1"/>
+      <c r="G988" s="1"/>
       <c r="J988" s="1"/>
       <c r="K988" s="1"/>
       <c r="L988" s="1"/>
@@ -43718,6 +44451,12 @@
     </row>
     <row r="989">
       <c r="A989" s="1"/>
+      <c r="B989" s="1"/>
+      <c r="C989" s="1"/>
+      <c r="D989" s="1"/>
+      <c r="E989" s="1"/>
+      <c r="F989" s="1"/>
+      <c r="G989" s="1"/>
       <c r="J989" s="1"/>
       <c r="K989" s="1"/>
       <c r="L989" s="1"/>
@@ -43751,6 +44490,12 @@
     </row>
     <row r="990">
       <c r="A990" s="1"/>
+      <c r="B990" s="1"/>
+      <c r="C990" s="1"/>
+      <c r="D990" s="1"/>
+      <c r="E990" s="1"/>
+      <c r="F990" s="1"/>
+      <c r="G990" s="1"/>
       <c r="J990" s="1"/>
       <c r="K990" s="1"/>
       <c r="L990" s="1"/>
@@ -43916,6 +44661,16 @@
     </row>
     <row r="995">
       <c r="A995" s="1"/>
+      <c r="J995" s="1"/>
+      <c r="K995" s="1"/>
+      <c r="L995" s="1"/>
+      <c r="M995" s="1"/>
+      <c r="N995" s="1"/>
+      <c r="O995" s="1"/>
+      <c r="P995" s="1"/>
+      <c r="Q995" s="1"/>
+      <c r="R995" s="1"/>
+      <c r="S995" s="1"/>
       <c r="T995" s="1"/>
       <c r="U995" s="1"/>
       <c r="V995" s="1"/>
@@ -43939,6 +44694,16 @@
     </row>
     <row r="996">
       <c r="A996" s="1"/>
+      <c r="J996" s="1"/>
+      <c r="K996" s="1"/>
+      <c r="L996" s="1"/>
+      <c r="M996" s="1"/>
+      <c r="N996" s="1"/>
+      <c r="O996" s="1"/>
+      <c r="P996" s="1"/>
+      <c r="Q996" s="1"/>
+      <c r="R996" s="1"/>
+      <c r="S996" s="1"/>
       <c r="T996" s="1"/>
       <c r="U996" s="1"/>
       <c r="V996" s="1"/>
@@ -43962,6 +44727,16 @@
     </row>
     <row r="997">
       <c r="A997" s="1"/>
+      <c r="J997" s="1"/>
+      <c r="K997" s="1"/>
+      <c r="L997" s="1"/>
+      <c r="M997" s="1"/>
+      <c r="N997" s="1"/>
+      <c r="O997" s="1"/>
+      <c r="P997" s="1"/>
+      <c r="Q997" s="1"/>
+      <c r="R997" s="1"/>
+      <c r="S997" s="1"/>
       <c r="T997" s="1"/>
       <c r="U997" s="1"/>
       <c r="V997" s="1"/>
@@ -43985,6 +44760,16 @@
     </row>
     <row r="998">
       <c r="A998" s="1"/>
+      <c r="J998" s="1"/>
+      <c r="K998" s="1"/>
+      <c r="L998" s="1"/>
+      <c r="M998" s="1"/>
+      <c r="N998" s="1"/>
+      <c r="O998" s="1"/>
+      <c r="P998" s="1"/>
+      <c r="Q998" s="1"/>
+      <c r="R998" s="1"/>
+      <c r="S998" s="1"/>
       <c r="T998" s="1"/>
       <c r="U998" s="1"/>
       <c r="V998" s="1"/>
@@ -44052,12 +44837,104 @@
       <c r="AL1000" s="1"/>
       <c r="AM1000" s="1"/>
     </row>
+    <row r="1001">
+      <c r="A1001" s="1"/>
+      <c r="T1001" s="1"/>
+      <c r="U1001" s="1"/>
+      <c r="V1001" s="1"/>
+      <c r="W1001" s="1"/>
+      <c r="X1001" s="1"/>
+      <c r="Y1001" s="1"/>
+      <c r="Z1001" s="1"/>
+      <c r="AA1001" s="1"/>
+      <c r="AB1001" s="1"/>
+      <c r="AC1001" s="1"/>
+      <c r="AD1001" s="1"/>
+      <c r="AE1001" s="1"/>
+      <c r="AF1001" s="1"/>
+      <c r="AG1001" s="1"/>
+      <c r="AH1001" s="1"/>
+      <c r="AI1001" s="1"/>
+      <c r="AJ1001" s="1"/>
+      <c r="AK1001" s="1"/>
+      <c r="AL1001" s="1"/>
+      <c r="AM1001" s="1"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="1"/>
+      <c r="T1002" s="1"/>
+      <c r="U1002" s="1"/>
+      <c r="V1002" s="1"/>
+      <c r="W1002" s="1"/>
+      <c r="X1002" s="1"/>
+      <c r="Y1002" s="1"/>
+      <c r="Z1002" s="1"/>
+      <c r="AA1002" s="1"/>
+      <c r="AB1002" s="1"/>
+      <c r="AC1002" s="1"/>
+      <c r="AD1002" s="1"/>
+      <c r="AE1002" s="1"/>
+      <c r="AF1002" s="1"/>
+      <c r="AG1002" s="1"/>
+      <c r="AH1002" s="1"/>
+      <c r="AI1002" s="1"/>
+      <c r="AJ1002" s="1"/>
+      <c r="AK1002" s="1"/>
+      <c r="AL1002" s="1"/>
+      <c r="AM1002" s="1"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="1"/>
+      <c r="T1003" s="1"/>
+      <c r="U1003" s="1"/>
+      <c r="V1003" s="1"/>
+      <c r="W1003" s="1"/>
+      <c r="X1003" s="1"/>
+      <c r="Y1003" s="1"/>
+      <c r="Z1003" s="1"/>
+      <c r="AA1003" s="1"/>
+      <c r="AB1003" s="1"/>
+      <c r="AC1003" s="1"/>
+      <c r="AD1003" s="1"/>
+      <c r="AE1003" s="1"/>
+      <c r="AF1003" s="1"/>
+      <c r="AG1003" s="1"/>
+      <c r="AH1003" s="1"/>
+      <c r="AI1003" s="1"/>
+      <c r="AJ1003" s="1"/>
+      <c r="AK1003" s="1"/>
+      <c r="AL1003" s="1"/>
+      <c r="AM1003" s="1"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="1"/>
+      <c r="T1004" s="1"/>
+      <c r="U1004" s="1"/>
+      <c r="V1004" s="1"/>
+      <c r="W1004" s="1"/>
+      <c r="X1004" s="1"/>
+      <c r="Y1004" s="1"/>
+      <c r="Z1004" s="1"/>
+      <c r="AA1004" s="1"/>
+      <c r="AB1004" s="1"/>
+      <c r="AC1004" s="1"/>
+      <c r="AD1004" s="1"/>
+      <c r="AE1004" s="1"/>
+      <c r="AF1004" s="1"/>
+      <c r="AG1004" s="1"/>
+      <c r="AH1004" s="1"/>
+      <c r="AI1004" s="1"/>
+      <c r="AJ1004" s="1"/>
+      <c r="AK1004" s="1"/>
+      <c r="AL1004" s="1"/>
+      <c r="AM1004" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="58">
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="B60:C61"/>
-    <mergeCell ref="B94:C95"/>
+    <mergeCell ref="B95:C96"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="B21:B32"/>
@@ -44067,6 +44944,12 @@
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="M12:M13"/>
     <mergeCell ref="M21:M22"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="K106:M106"/>
+    <mergeCell ref="K107:M107"/>
+    <mergeCell ref="K140:M140"/>
+    <mergeCell ref="K141:M141"/>
     <mergeCell ref="L2:M3"/>
     <mergeCell ref="L4:L15"/>
     <mergeCell ref="M4:M5"/>
